--- a/output/fit_clients/fit_round_387.xlsx
+++ b/output/fit_clients/fit_round_387.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2261218526.892115</v>
+        <v>1973405747.224912</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09880771304646899</v>
+        <v>0.0739652187044076</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04109127372379155</v>
+        <v>0.04237291112920577</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
         <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1130609294.20833</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1950878517.579552</v>
+        <v>2479371647.916466</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1449421828942271</v>
+        <v>0.1599491257745952</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03717742579402861</v>
+        <v>0.04258295189542748</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>975439291.2503642</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5075054275.566126</v>
+        <v>3724348741.518071</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1402252050982014</v>
+        <v>0.152171431228781</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03262545240164691</v>
+        <v>0.0297780134469748</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>140</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2537527228.129378</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4001411175.945755</v>
+        <v>3120569028.946945</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07012717522878364</v>
+        <v>0.08061762788457533</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03846333606393488</v>
+        <v>0.03257670952593763</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>143</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2000705591.560286</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2798972569.480638</v>
+        <v>1960143995.223351</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1362600527474589</v>
+        <v>0.1237896532469901</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04808127310772486</v>
+        <v>0.03414815905758259</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>71</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1399486227.879753</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2770308352.820298</v>
+        <v>2402902478.059514</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06417808772949192</v>
+        <v>0.09291289390607144</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0475966374312428</v>
+        <v>0.04203219599789369</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>121</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1385154163.435422</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2680091160.955549</v>
+        <v>3113280009.622824</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2025115595018892</v>
+        <v>0.1690142053694725</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02206420272389255</v>
+        <v>0.02633271694414737</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>123</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1340045605.302203</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1534100674.389393</v>
+        <v>1895778871.365301</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1212909310857481</v>
+        <v>0.1414696742089763</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02309520742825161</v>
+        <v>0.03124830461054473</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>767050428.4593329</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4142286171.108118</v>
+        <v>5685736363.644171</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1539500826411509</v>
+        <v>0.1919591862177647</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04459472996679413</v>
+        <v>0.03711097801717528</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>162</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2071143118.475604</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3498755162.874877</v>
+        <v>3345041233.416695</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1650998079581292</v>
+        <v>0.1470829209489569</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04444248799567613</v>
+        <v>0.04491601790022966</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>160</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1749377559.17676</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3129803245.998352</v>
+        <v>2301308462.850257</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1775476487068776</v>
+        <v>0.1746632560092828</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04000608976605079</v>
+        <v>0.03836361836463861</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>131</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1564901652.895342</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4236387790.466534</v>
+        <v>5047298636.329275</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0766984329993666</v>
+        <v>0.09434394232533511</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03094406016664398</v>
+        <v>0.01988455905958729</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>130</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2118193938.16628</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2513988177.204204</v>
+        <v>2561097629.324709</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1770589212354317</v>
+        <v>0.1235787409238384</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0417622694506093</v>
+        <v>0.03246043590214474</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>125</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1256994158.250672</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1439964005.157741</v>
+        <v>1775204421.772727</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1070243241691982</v>
+        <v>0.0814713707943497</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04149604970706626</v>
+        <v>0.03500502675209338</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>719982074.4814475</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2860164994.307005</v>
+        <v>1795565284.327353</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0851346420340973</v>
+        <v>0.1058494805070716</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0338664700881898</v>
+        <v>0.04210716227319813</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>79</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1430082495.817613</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5080513647.462091</v>
+        <v>5149094464.368767</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1339026665602151</v>
+        <v>0.1596826895997102</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05081636529533645</v>
+        <v>0.03812665819092448</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>114</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2540256804.890239</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3076210675.452693</v>
+        <v>2901047709.299742</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1778862157571132</v>
+        <v>0.1439124385865454</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0298642771835994</v>
+        <v>0.03039579365964246</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>127</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1538105362.441106</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1343159325.722152</v>
+        <v>1267216405.40987</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1735331947150257</v>
+        <v>0.1768789622967742</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02575761834035747</v>
+        <v>0.02554412282190911</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>671579775.6283984</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2773291698.949018</v>
+        <v>2058733254.671094</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1490896912373674</v>
+        <v>0.1160553228759764</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02853841498736904</v>
+        <v>0.03156794722517525</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>49</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1386645793.462502</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2100233583.046064</v>
+        <v>2334372578.028487</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08552983230089595</v>
+        <v>0.09903373863684448</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04541075940352427</v>
+        <v>0.04607665856848834</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>32</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1050116817.899938</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3264869062.201477</v>
+        <v>3566541450.09085</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1262500128143818</v>
+        <v>0.1193078535950825</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05520741638185804</v>
+        <v>0.04058152088694504</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>106</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1632434576.78596</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1451166510.318687</v>
+        <v>1095658908.116604</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1533856413007411</v>
+        <v>0.1153177555488204</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04466747818214912</v>
+        <v>0.04367526963375384</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>725583249.335318</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3256368080.424755</v>
+        <v>4085711889.332662</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1485897195494882</v>
+        <v>0.1201700604292747</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03429984759185831</v>
+        <v>0.03068803712786797</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>113</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1628184058.222749</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1288388278.057609</v>
+        <v>1380260384.024907</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0782665236875138</v>
+        <v>0.1224879820305649</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01987822019160936</v>
+        <v>0.02071066952269512</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>644194136.6726553</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1375568830.298119</v>
+        <v>1251094926.614514</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08788636348004107</v>
+        <v>0.08598285823273649</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03200603724711319</v>
+        <v>0.029024644024733</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>687784479.1705033</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3283543736.098488</v>
+        <v>3205451700.064581</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1243893954012534</v>
+        <v>0.1194619370612054</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0178137397221039</v>
+        <v>0.0272347611686845</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>93</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1641771913.801946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2543335817.655584</v>
+        <v>3818131709.738965</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1450666273737213</v>
+        <v>0.1129322433439831</v>
       </c>
       <c r="G28" t="n">
-        <v>0.050079391016249</v>
+        <v>0.04925558691718572</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>125</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1271667880.447247</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4038751364.592602</v>
+        <v>3869399414.502054</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1277036635680974</v>
+        <v>0.1325377284821085</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03520232999174586</v>
+        <v>0.04416734899176983</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>171</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2019375696.519752</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1742037037.607625</v>
+        <v>1949493059.13321</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1203378735129419</v>
+        <v>0.1346381092791749</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03923280330672069</v>
+        <v>0.02551801394623102</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>871018526.8804538</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1367583672.767729</v>
+        <v>1321305206.934039</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0701964384096589</v>
+        <v>0.07098283972557995</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04252684711669145</v>
+        <v>0.04381728603501306</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>683791748.4042388</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1839655389.678089</v>
+        <v>1444847543.997139</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1039352829969666</v>
+        <v>0.08021815530841447</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03277167852705253</v>
+        <v>0.03215004974534422</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>919827833.5331541</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2617821452.984683</v>
+        <v>2444648089.138242</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1560645158742537</v>
+        <v>0.1349215121640411</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04610783126605521</v>
+        <v>0.0374270772309727</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>117</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1308910754.702013</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1366773764.692743</v>
+        <v>1152183555.237455</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1197155276196792</v>
+        <v>0.09799110841420464</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01955056002584672</v>
+        <v>0.01934524142083491</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>683386860.0669091</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1276159445.475171</v>
+        <v>1067542167.042755</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09397590074458842</v>
+        <v>0.1151348285502895</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0302670102281532</v>
+        <v>0.04274504052666384</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>638079680.7709908</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2784131937.245448</v>
+        <v>2481425606.819308</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1714111664956469</v>
+        <v>0.1681462348552118</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02046101637573786</v>
+        <v>0.02754276782559411</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>97</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1392065967.856208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2378891165.979171</v>
+        <v>2453462603.739757</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07712444278340601</v>
+        <v>0.08927823759234986</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03180999999535714</v>
+        <v>0.036925700665222</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>102</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1189445662.39566</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1429442097.068117</v>
+        <v>1468607507.872086</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08404561600096802</v>
+        <v>0.1051685348127366</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02859628653623732</v>
+        <v>0.0351556448788627</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>714721107.7656929</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1864101182.599713</v>
+        <v>1893272219.966403</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1257984186874548</v>
+        <v>0.1500664598330302</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03263618214092718</v>
+        <v>0.02443836438921936</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>932050606.4843328</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1521038280.168898</v>
+        <v>1572628316.280519</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1566228560159333</v>
+        <v>0.13939779388157</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04499594228928689</v>
+        <v>0.0516716061090598</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>760519101.0306672</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2593003274.4455</v>
+        <v>2840094706.001457</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1065618386578496</v>
+        <v>0.1419364403015506</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03465598532658826</v>
+        <v>0.04160894756994177</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>99</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1296501653.377783</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3188372392.29598</v>
+        <v>3343916737.420918</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1231868887968594</v>
+        <v>0.1056978163413752</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0302259545825497</v>
+        <v>0.03625094897646197</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>126</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1594186169.553913</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2194771686.799125</v>
+        <v>2464453804.070933</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1251479377557085</v>
+        <v>0.1647237561296686</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0172507934918867</v>
+        <v>0.02326187210117735</v>
       </c>
       <c r="H43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>134</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1097385922.778354</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2291959639.091599</v>
+        <v>1956092322.292498</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08296901542902801</v>
+        <v>0.0619867203353953</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03631325676562144</v>
+        <v>0.02267792496330009</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1145979984.154015</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2518136763.452865</v>
+        <v>2369667727.573298</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1775746468381504</v>
+        <v>0.1806970510783497</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03642427410703882</v>
+        <v>0.03628783537863488</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1259068424.86662</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5437133575.295749</v>
+        <v>5400882938.021608</v>
       </c>
       <c r="F46" t="n">
-        <v>0.139727070324112</v>
+        <v>0.1618153964591154</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03799675255827724</v>
+        <v>0.04665995955459338</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>137</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2718566839.471775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4122559218.165433</v>
+        <v>4666394075.175126</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721198747191575</v>
+        <v>0.1583588648676346</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04934889877777764</v>
+        <v>0.04154504729975577</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>104</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2061279615.216076</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4618053405.952061</v>
+        <v>4380534448.543313</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1104812761576764</v>
+        <v>0.07521502075211202</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03881670308541831</v>
+        <v>0.03625837226497378</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>126</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2309026701.424062</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1883984701.327822</v>
+        <v>1548206033.289226</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1431480341515963</v>
+        <v>0.1840696479032224</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03703362596112427</v>
+        <v>0.0292130222701324</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>941992323.0048209</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3622028119.241184</v>
+        <v>3308690073.118358</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1729025549638269</v>
+        <v>0.1598243549175071</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04614454367310519</v>
+        <v>0.0487882845980771</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>132</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1811014075.203978</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1171214092.125185</v>
+        <v>1383540741.60081</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1530376599066528</v>
+        <v>0.1187628245256198</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03697819421091339</v>
+        <v>0.04267268646484949</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>585607102.2841398</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5016104960.524865</v>
+        <v>5255663560.709913</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1390696309755553</v>
+        <v>0.1249603895197125</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04723546472075284</v>
+        <v>0.05633322186528823</v>
       </c>
       <c r="H52" t="b">
         <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>159</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2508052476.949914</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2727669204.199065</v>
+        <v>3587979994.04037</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1780741264923724</v>
+        <v>0.1966355176746201</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03176198310233313</v>
+        <v>0.03407294493990691</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>110</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1363834653.353667</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4515929875.901337</v>
+        <v>3000900750.27443</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1618537408483624</v>
+        <v>0.1618559266856663</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04440795427778933</v>
+        <v>0.03520378655274908</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>125</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2257965042.531672</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4155282305.518556</v>
+        <v>3680154412.600259</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1929633324431247</v>
+        <v>0.1837332604875115</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02909521163881204</v>
+        <v>0.02105939054265257</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>114</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2077641134.53424</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1410133714.419905</v>
+        <v>1212372580.796498</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1632069399265158</v>
+        <v>0.1642515021041264</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04458602178945053</v>
+        <v>0.05541146376730855</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>705066912.813466</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2763438586.878057</v>
+        <v>3559389997.160658</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1157545484489829</v>
+        <v>0.1675575322910626</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02120269008051746</v>
+        <v>0.02478095864495818</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>123</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1381719277.992208</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1636797333.314838</v>
+        <v>1608100538.110344</v>
       </c>
       <c r="F58" t="n">
-        <v>0.154458588907829</v>
+        <v>0.1748702882301985</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03455109138118627</v>
+        <v>0.02721195843998963</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>818398685.3341008</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3596341899.102872</v>
+        <v>4451841621.798425</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1167031877658864</v>
+        <v>0.09226077775633737</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04731543972909511</v>
+        <v>0.0470448680917659</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>109</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1798170944.990832</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2961264857.399574</v>
+        <v>2852754029.742044</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1997686578814323</v>
+        <v>0.1503783825511511</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02636996428745456</v>
+        <v>0.03042235343170358</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>122</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1480632494.998474</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2965822100.922877</v>
+        <v>2145720230.914194</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1667200538461093</v>
+        <v>0.1178379378137532</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02401595921809528</v>
+        <v>0.02707538336202927</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>133</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1482911034.159982</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1756696676.800814</v>
+        <v>2052291521.744468</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1243203867916351</v>
+        <v>0.1933310118595133</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0475928132873986</v>
+        <v>0.03453875537279407</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>878348359.9993738</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3707712384.609182</v>
+        <v>4055203920.582009</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1022859599442849</v>
+        <v>0.106365285286785</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04132214521669746</v>
+        <v>0.0393017425819823</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>111</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1853856267.722487</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3766830343.211801</v>
+        <v>5005318592.018585</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1848721197186055</v>
+        <v>0.1879708974444405</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03003629101743002</v>
+        <v>0.02159300417827012</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>120</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1883415191.078405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4051176858.518939</v>
+        <v>5312928910.498085</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1366439018406956</v>
+        <v>0.1512228645002531</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0276148152087497</v>
+        <v>0.02999784290545942</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>138</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2025588444.811484</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5392661441.624881</v>
+        <v>4953313603.97519</v>
       </c>
       <c r="F66" t="n">
-        <v>0.09912374500490506</v>
+        <v>0.1435655257497311</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03784086416737843</v>
+        <v>0.04980686494972564</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>112</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2696330769.059013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2529166024.239927</v>
+        <v>3007022551.473065</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08153599469548094</v>
+        <v>0.06342451099919995</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04689176912363285</v>
+        <v>0.0453980109981362</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>124</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1264583070.229129</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4447722018.378512</v>
+        <v>5648618700.954339</v>
       </c>
       <c r="F68" t="n">
-        <v>0.10336842453815</v>
+        <v>0.1435015084589416</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05102716170952548</v>
+        <v>0.0369933776862449</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>126</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2223861032.120079</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2372402429.132957</v>
+        <v>2352243929.805968</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1195280900875981</v>
+        <v>0.1492342933683116</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0436863726949545</v>
+        <v>0.05575949965117655</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1186201267.671865</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2739748422.358189</v>
+        <v>2947238188.848361</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09863001243908028</v>
+        <v>0.0810590073540363</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03285431922168806</v>
+        <v>0.0356713080290019</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>110</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1369874171.223774</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4514247808.8646</v>
+        <v>3978494958.271725</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1627581222169243</v>
+        <v>0.1349194710953954</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02232353374863401</v>
+        <v>0.02476783339865447</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>141</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2257123973.88905</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1459460053.240323</v>
+        <v>1482357724.287102</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07762127334802078</v>
+        <v>0.09339094622167547</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05098566942405276</v>
+        <v>0.04297922912645</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>729730060.1639216</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3483342657.736776</v>
+        <v>2319485286.271671</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09344862379345883</v>
+        <v>0.1084200407464491</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05208627796277893</v>
+        <v>0.04511822437747976</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>147</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1741671280.594323</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3512168736.917094</v>
+        <v>3545805566.885047</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1204082897813415</v>
+        <v>0.1663462000007874</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03223658188458375</v>
+        <v>0.02817745207127837</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>132</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1756084389.613494</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2492124787.410143</v>
+        <v>2086169304.8405</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1339864562610842</v>
+        <v>0.101000937150794</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02623097468463419</v>
+        <v>0.03343606035901389</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1246062311.737446</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3895935608.796404</v>
+        <v>4267537387.122692</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1222449930602551</v>
+        <v>0.115860129155471</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03275476615440534</v>
+        <v>0.03427059148901069</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>90</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1947967784.738711</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2312070512.875613</v>
+        <v>2058106410.765739</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1375075747546527</v>
+        <v>0.1627849173913049</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03057274513294919</v>
+        <v>0.02531613411042734</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1156035364.059116</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4139952984.144828</v>
+        <v>3378962834.30688</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1366793315929405</v>
+        <v>0.09177549256555513</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03539202530484247</v>
+        <v>0.04070303555373666</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>134</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2069976447.795656</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1336220427.675619</v>
+        <v>1368960511.500952</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1151282606529787</v>
+        <v>0.1619989182133143</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0333819883872435</v>
+        <v>0.03503913456624128</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>668110219.4062871</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4095159833.341</v>
+        <v>4086540076.522539</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07047855279947</v>
+        <v>0.09729991737895845</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02904703552850533</v>
+        <v>0.03752928506023401</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>85</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2047579920.876971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4948939597.769176</v>
+        <v>4743817202.904382</v>
       </c>
       <c r="F81" t="n">
-        <v>0.127502769315042</v>
+        <v>0.09449316243719971</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0221868286848258</v>
+        <v>0.02453994000383121</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>89</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2474469797.346237</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4099081982.799555</v>
+        <v>5079092922.287993</v>
       </c>
       <c r="F82" t="n">
-        <v>0.156945979846788</v>
+        <v>0.1798391579804152</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02173958082531027</v>
+        <v>0.02881139584736228</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>135</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2049541025.620669</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2194676592.408412</v>
+        <v>2174915346.750994</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1326664717108299</v>
+        <v>0.1213808298403667</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04380965320042611</v>
+        <v>0.03564687245063276</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1097338305.759964</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1708552095.172369</v>
+        <v>2083437968.578883</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09599018328857348</v>
+        <v>0.117712142023805</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0349585507740216</v>
+        <v>0.04478933033616292</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>5</v>
-      </c>
-      <c r="J84" t="n">
-        <v>854276095.2738458</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3293711790.555806</v>
+        <v>2458362594.12009</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1583441467808751</v>
+        <v>0.1536326344505361</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05352724147565981</v>
+        <v>0.04780949564931043</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>146</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1646855987.869221</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1997941702.404529</v>
+        <v>2474158369.008196</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1208434115940635</v>
+        <v>0.1071194794029294</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01686290062838004</v>
+        <v>0.02204563306148479</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>51</v>
-      </c>
-      <c r="J86" t="n">
-        <v>998970878.5633526</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1076189513.495753</v>
+        <v>1465593057.060739</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1358143893862627</v>
+        <v>0.145563397589525</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0305210012888812</v>
+        <v>0.03354046846397229</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>538094780.6178093</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3487496254.134871</v>
+        <v>2728584342.41593</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1296858754397783</v>
+        <v>0.1686107311033513</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03152081959648591</v>
+        <v>0.02831447131909543</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>152</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1743748205.71812</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2664878032.076699</v>
+        <v>3458942287.910544</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1031488902539027</v>
+        <v>0.1347266563080506</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0390375951343363</v>
+        <v>0.02917888654416009</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>131</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1332439078.726433</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1996997633.580707</v>
+        <v>1849347504.398098</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1119880771849484</v>
+        <v>0.1138724072209463</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05579623249541756</v>
+        <v>0.04821851011344209</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>998498886.481639</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1382097245.598768</v>
+        <v>1757771599.33305</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1180919258388007</v>
+        <v>0.1702799318608005</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0586476141836284</v>
+        <v>0.04197679179966041</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>691048677.4692963</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2816052017.081785</v>
+        <v>2539246595.614306</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09853976317885363</v>
+        <v>0.07942976805185138</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03257562471561243</v>
+        <v>0.04771570500425886</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>109</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1408026016.390579</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4483742371.993776</v>
+        <v>3844472617.396876</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1126520068196864</v>
+        <v>0.09081662654315055</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05368163679872007</v>
+        <v>0.0483747433946505</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>116</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2241871155.325469</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1767072842.934166</v>
+        <v>2300625021.5169</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1551258238136317</v>
+        <v>0.1474280778776448</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04068340642123917</v>
+        <v>0.03564592872404956</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>883536389.523813</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2866732151.567716</v>
+        <v>2907144934.747296</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09877543352322779</v>
+        <v>0.1080831111899602</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03350338872136966</v>
+        <v>0.03437606523312991</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>95</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1433366085.224532</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1858847956.609193</v>
+        <v>1744072890.200047</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1033326138527147</v>
+        <v>0.1202671089401164</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03638215077843689</v>
+        <v>0.03303805977239878</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>929423980.3544602</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5126365871.301952</v>
+        <v>3409958775.293102</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1373483937594497</v>
+        <v>0.1306195008626061</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02853874013754185</v>
+        <v>0.022479062819424</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>125</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2563183082.628098</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3913107844.356699</v>
+        <v>3650997355.855549</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1095745733868456</v>
+        <v>0.1287647701604838</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0321527304268164</v>
+        <v>0.02691988001839272</v>
       </c>
       <c r="H98" t="b">
         <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>102</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1956553968.797409</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3102280656.946583</v>
+        <v>3005867953.972641</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1469032352718555</v>
+        <v>0.1114582380820856</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0239868302246906</v>
+        <v>0.03351905217648641</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>121</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1551140321.896921</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3700871598.888559</v>
+        <v>4381878736.32437</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1193298379639821</v>
+        <v>0.1495178103435402</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02168312177631977</v>
+        <v>0.01853116122103601</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>118</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1850435846.237841</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3219169210.660349</v>
+        <v>2945671798.449449</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1636003569864466</v>
+        <v>0.1578745120865363</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05104120394431386</v>
+        <v>0.03807456123626973</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>158</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1609584723.338356</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_387.xlsx
+++ b/output/fit_clients/fit_round_387.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1973405747.224912</v>
+        <v>1836500450.085597</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0739652187044076</v>
+        <v>0.08510769381417249</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04237291112920577</v>
+        <v>0.04040893478864453</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2479371647.916466</v>
+        <v>1744746584.540641</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1599491257745952</v>
+        <v>0.1799920581207947</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04258295189542748</v>
+        <v>0.03581501288544742</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3724348741.518071</v>
+        <v>3418258183.37079</v>
       </c>
       <c r="F4" t="n">
-        <v>0.152171431228781</v>
+        <v>0.1629797183225957</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0297780134469748</v>
+        <v>0.03360799090188028</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3120569028.946945</v>
+        <v>3065571803.955928</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08061762788457533</v>
+        <v>0.08721036420741328</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03257670952593763</v>
+        <v>0.04761846651535472</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1960143995.223351</v>
+        <v>2658348603.020476</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1237896532469901</v>
+        <v>0.0991989940563614</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03414815905758259</v>
+        <v>0.0481973748953021</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2402902478.059514</v>
+        <v>2193114861.929186</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09291289390607144</v>
+        <v>0.075817442940775</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04203219599789369</v>
+        <v>0.04959250739860724</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3113280009.622824</v>
+        <v>3468310356.561266</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1690142053694725</v>
+        <v>0.2112368231284695</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02633271694414737</v>
+        <v>0.02658733124866331</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1895778871.365301</v>
+        <v>1601810603.336113</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1414696742089763</v>
+        <v>0.1865306980536361</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03124830461054473</v>
+        <v>0.02440824704914431</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5685736363.644171</v>
+        <v>4016129702.573128</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1919591862177647</v>
+        <v>0.1382006590050127</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03711097801717528</v>
+        <v>0.05063659811138158</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3345041233.416695</v>
+        <v>3178100066.841909</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1470829209489569</v>
+        <v>0.1320683247873725</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04491601790022966</v>
+        <v>0.04529636510638637</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2301308462.850257</v>
+        <v>3146064842.910076</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1746632560092828</v>
+        <v>0.1689357701508864</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03836361836463861</v>
+        <v>0.05165254071859462</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5047298636.329275</v>
+        <v>5079908434.961739</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09434394232533511</v>
+        <v>0.09548834215280992</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01988455905958729</v>
+        <v>0.02645392583125399</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2561097629.324709</v>
+        <v>3793886742.419494</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1235787409238384</v>
+        <v>0.116447442044261</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03246043590214474</v>
+        <v>0.03220711905121193</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,22 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1775204421.772727</v>
+        <v>1767987595.372131</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0814713707943497</v>
+        <v>0.06939999878260893</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03500502675209338</v>
+        <v>0.04648910051773514</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1795565284.327353</v>
+        <v>2882202002.089424</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1058494805070716</v>
+        <v>0.08554656899369432</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04210716227319813</v>
+        <v>0.04735681046962849</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5149094464.368767</v>
+        <v>4203350423.410684</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1596826895997102</v>
+        <v>0.1114267212669778</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03812665819092448</v>
+        <v>0.03748292344176961</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,22 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2901047709.299742</v>
+        <v>2718124333.269032</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1439124385865454</v>
+        <v>0.1298969302578278</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03039579365964246</v>
+        <v>0.02298696101320261</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1267216405.40987</v>
+        <v>831906913.6790663</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1768789622967742</v>
+        <v>0.130691241436801</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02554412282190911</v>
+        <v>0.02626422522163466</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2058733254.671094</v>
+        <v>2169334312.458545</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1160553228759764</v>
+        <v>0.1148176149482491</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03156794722517525</v>
+        <v>0.02702571681317048</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,22 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2334372578.028487</v>
+        <v>1715952769.7048</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09903373863684448</v>
+        <v>0.06399215361102863</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04607665856848834</v>
+        <v>0.03220735169710118</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1046,16 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3566541450.09085</v>
+        <v>3085026797.037784</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1193078535950825</v>
+        <v>0.09736225913482682</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04058152088694504</v>
+        <v>0.0557775107883336</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1095658908.116604</v>
+        <v>1548698961.518621</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1153177555488204</v>
+        <v>0.1471616837486136</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04367526963375384</v>
+        <v>0.05276464823812142</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4085711889.332662</v>
+        <v>3388846109.874124</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1201700604292747</v>
+        <v>0.1059755630242644</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03068803712786797</v>
+        <v>0.03508487761348927</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1380260384.024907</v>
+        <v>944020979.941725</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1224879820305649</v>
+        <v>0.1208956482174508</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02071066952269512</v>
+        <v>0.01887752332206746</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1251094926.614514</v>
+        <v>954660130.1209807</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08598285823273649</v>
+        <v>0.09558857830252107</v>
       </c>
       <c r="G26" t="n">
-        <v>0.029024644024733</v>
+        <v>0.03411693514445501</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3205451700.064581</v>
+        <v>3935839071.144852</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1194619370612054</v>
+        <v>0.1561309505328542</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0272347611686845</v>
+        <v>0.02236602525278741</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3818131709.738965</v>
+        <v>2440103916.027076</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1129322433439831</v>
+        <v>0.103774099554522</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04925558691718572</v>
+        <v>0.04978638839794737</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3869399414.502054</v>
+        <v>5752494859.530819</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1325377284821085</v>
+        <v>0.1237904105946977</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04416734899176983</v>
+        <v>0.02949663643347951</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1949493059.13321</v>
+        <v>1778539143.664692</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1346381092791749</v>
+        <v>0.1229914653158057</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02551801394623102</v>
+        <v>0.02630237201582181</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1321305206.934039</v>
+        <v>1108891390.800467</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07098283972557995</v>
+        <v>0.1118267460605384</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04381728603501306</v>
+        <v>0.04723210299959126</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1444847543.997139</v>
+        <v>1354070602.231719</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08021815530841447</v>
+        <v>0.09130047828990789</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03215004974534422</v>
+        <v>0.02916541771522222</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2444648089.138242</v>
+        <v>2620594584.677405</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1349215121640411</v>
+        <v>0.1434029818327063</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0374270772309727</v>
+        <v>0.04720999967581317</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1152183555.237455</v>
+        <v>1499382053.384162</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09799110841420464</v>
+        <v>0.1109683235005187</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01934524142083491</v>
+        <v>0.02413749492853673</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1067542167.042755</v>
+        <v>1221456527.37224</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1151348285502895</v>
+        <v>0.07425333089967136</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04274504052666384</v>
+        <v>0.03963058343111379</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2481425606.819308</v>
+        <v>2021056187.930838</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1681462348552118</v>
+        <v>0.1450612512920265</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02754276782559411</v>
+        <v>0.02847609165739314</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2453462603.739757</v>
+        <v>2344956272.901504</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08927823759234986</v>
+        <v>0.1089868379605119</v>
       </c>
       <c r="G37" t="n">
-        <v>0.036925700665222</v>
+        <v>0.03142011832712389</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,22 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1468607507.872086</v>
+        <v>1520215359.79579</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1051685348127366</v>
+        <v>0.1095193693141119</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0351556448788627</v>
+        <v>0.02912800313056897</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1893272219.966403</v>
+        <v>1792456989.894891</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1500664598330302</v>
+        <v>0.1534155732809935</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02443836438921936</v>
+        <v>0.02438225479000966</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1572628316.280519</v>
+        <v>1582898025.63837</v>
       </c>
       <c r="F40" t="n">
-        <v>0.13939779388157</v>
+        <v>0.1527188490368086</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0516716061090598</v>
+        <v>0.03890610851584035</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2840094706.001457</v>
+        <v>2543416553.289017</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1419364403015506</v>
+        <v>0.1137788537728942</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04160894756994177</v>
+        <v>0.03683181991647248</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3343916737.420918</v>
+        <v>2697885420.693416</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1056978163413752</v>
+        <v>0.08523087591550446</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03625094897646197</v>
+        <v>0.03104753833787084</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,22 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2464453804.070933</v>
+        <v>2002013676.875773</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1647237561296686</v>
+        <v>0.1614447721842473</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02326187210117735</v>
+        <v>0.01867143123068691</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1956092322.292498</v>
+        <v>1988590058.88324</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0619867203353953</v>
+        <v>0.096191399798514</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02267792496330009</v>
+        <v>0.02312564129620949</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2369667727.573298</v>
+        <v>1606770326.753251</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1806970510783497</v>
+        <v>0.1513578999739053</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03628783537863488</v>
+        <v>0.05604040339978141</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5400882938.021608</v>
+        <v>5252962458.732241</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1618153964591154</v>
+        <v>0.1669402174893752</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04665995955459338</v>
+        <v>0.04222221391291706</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4666394075.175126</v>
+        <v>3821225653.273317</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1583588648676346</v>
+        <v>0.1323326989017623</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04154504729975577</v>
+        <v>0.04078851897701385</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4380534448.543313</v>
+        <v>3310003809.595321</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07521502075211202</v>
+        <v>0.06686451994042271</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03625837226497378</v>
+        <v>0.02457736428763812</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1548206033.289226</v>
+        <v>1643530728.073322</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1840696479032224</v>
+        <v>0.1301162956185297</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0292130222701324</v>
+        <v>0.02965025861066442</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1830,16 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3308690073.118358</v>
+        <v>3783671790.833106</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1598243549175071</v>
+        <v>0.1108930047000169</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0487882845980771</v>
+        <v>0.0529496630581482</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1383540741.60081</v>
+        <v>1028695528.149872</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1187628245256198</v>
+        <v>0.1627111035681186</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04267268646484949</v>
+        <v>0.05301603443249839</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5255663560.709913</v>
+        <v>3350920360.646789</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1249603895197125</v>
+        <v>0.1304526581216985</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05633322186528823</v>
+        <v>0.04461108349654129</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3587979994.04037</v>
+        <v>3335351987.91557</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1966355176746201</v>
+        <v>0.1272359258901074</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03407294493990691</v>
+        <v>0.03498627255035568</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3000900750.27443</v>
+        <v>4067291801.967205</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1618559266856663</v>
+        <v>0.107630468547184</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03520378655274908</v>
+        <v>0.03198757419284143</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3680154412.600259</v>
+        <v>3839568956.237052</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1837332604875115</v>
+        <v>0.1802434548405273</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02105939054265257</v>
+        <v>0.0256419900178791</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1212372580.796498</v>
+        <v>1429455234.30179</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1642515021041264</v>
+        <v>0.110778845484009</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05541146376730855</v>
+        <v>0.0389767460558072</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3559389997.160658</v>
+        <v>3005494761.973083</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1675575322910626</v>
+        <v>0.1768224357914044</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02478095864495818</v>
+        <v>0.02433518652857942</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1608100538.110344</v>
+        <v>1348812750.641081</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1748702882301985</v>
+        <v>0.1520986909396138</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02721195843998963</v>
+        <v>0.03967984302361554</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4451841621.798425</v>
+        <v>3273076102.719294</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09226077775633737</v>
+        <v>0.0991205721352957</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0470448680917659</v>
+        <v>0.04605287214980175</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2852754029.742044</v>
+        <v>3719158982.841346</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1503783825511511</v>
+        <v>0.1917236890193702</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03042235343170358</v>
+        <v>0.0289311134950948</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2145720230.914194</v>
+        <v>2050779407.001993</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1178379378137532</v>
+        <v>0.1535256626734037</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02707538336202927</v>
+        <v>0.02649914662687781</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2052291521.744468</v>
+        <v>1533957567.355085</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1933310118595133</v>
+        <v>0.1676714927659774</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03453875537279407</v>
+        <v>0.03959472894560093</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,13 +2194,13 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4055203920.582009</v>
+        <v>3441044722.760757</v>
       </c>
       <c r="F63" t="n">
-        <v>0.106365285286785</v>
+        <v>0.1023244510110784</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0393017425819823</v>
+        <v>0.02940938721747801</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5005318592.018585</v>
+        <v>5053085242.541382</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1879708974444405</v>
+        <v>0.1451152868761033</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02159300417827012</v>
+        <v>0.03484079409170812</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5312928910.498085</v>
+        <v>4654245785.850939</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1512228645002531</v>
+        <v>0.1725206064724565</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02999784290545942</v>
+        <v>0.02408431099580208</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4953313603.97519</v>
+        <v>4756857448.158941</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1435655257497311</v>
+        <v>0.1602288126491578</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04980686494972564</v>
+        <v>0.04450618609877734</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3007022551.473065</v>
+        <v>2215334715.963316</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06342451099919995</v>
+        <v>0.1031343920427615</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0453980109981362</v>
+        <v>0.03658017740692502</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5648618700.954339</v>
+        <v>4433876359.653921</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1435015084589416</v>
+        <v>0.1094172767857482</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0369933776862449</v>
+        <v>0.05157254343941028</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2352243929.805968</v>
+        <v>1731005219.776155</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1492342933683116</v>
+        <v>0.1465071645872749</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05575949965117655</v>
+        <v>0.05543088345221802</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2947238188.848361</v>
+        <v>3499680313.114892</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0810590073540363</v>
+        <v>0.06212047993102548</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0356713080290019</v>
+        <v>0.03372079594401021</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3978494958.271725</v>
+        <v>5225233459.09322</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1349194710953954</v>
+        <v>0.1687032663134349</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02476783339865447</v>
+        <v>0.02827801786109007</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1482357724.287102</v>
+        <v>2127791301.941137</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09339094622167547</v>
+        <v>0.06624823058700663</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04297922912645</v>
+        <v>0.04078233323869063</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2319485286.271671</v>
+        <v>3541680331.306359</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1084200407464491</v>
+        <v>0.1098191388836588</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04511822437747976</v>
+        <v>0.04694307498557226</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3545805566.885047</v>
+        <v>3818855055.91616</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1663462000007874</v>
+        <v>0.1636082466434255</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02817745207127837</v>
+        <v>0.02203570506796543</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2086169304.8405</v>
+        <v>1517877191.461475</v>
       </c>
       <c r="F75" t="n">
-        <v>0.101000937150794</v>
+        <v>0.1492770106458535</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03343606035901389</v>
+        <v>0.03123486060449018</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4267537387.122692</v>
+        <v>3974860890.304775</v>
       </c>
       <c r="F76" t="n">
-        <v>0.115860129155471</v>
+        <v>0.1028842419863629</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03427059148901069</v>
+        <v>0.03017712681485817</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2058106410.765739</v>
+        <v>1870609898.253743</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1627849173913049</v>
+        <v>0.1640143720688044</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02531613411042734</v>
+        <v>0.02441556745130958</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3378962834.30688</v>
+        <v>3402741650.164356</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09177549256555513</v>
+        <v>0.09675489960881187</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04070303555373666</v>
+        <v>0.03664774803318949</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1368960511.500952</v>
+        <v>1538115796.190937</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1619989182133143</v>
+        <v>0.1666056417209199</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03503913456624128</v>
+        <v>0.0270922730139321</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,19 +2664,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4086540076.522539</v>
+        <v>3752735698.639771</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09729991737895845</v>
+        <v>0.09707620247380475</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03752928506023401</v>
+        <v>0.0241460082092287</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4743817202.904382</v>
+        <v>3863331413.191235</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09449316243719971</v>
+        <v>0.1166026999193344</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02453994000383121</v>
+        <v>0.02351395460149746</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,22 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5079092922.287993</v>
+        <v>4289712171.268085</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1798391579804152</v>
+        <v>0.1464447950051583</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02881139584736228</v>
+        <v>0.02929052785149328</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2174915346.750994</v>
+        <v>1751845226.299301</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1213808298403667</v>
+        <v>0.09884654606755745</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03564687245063276</v>
+        <v>0.03111711347008845</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2083437968.578883</v>
+        <v>2575256065.279439</v>
       </c>
       <c r="F84" t="n">
-        <v>0.117712142023805</v>
+        <v>0.1016647677374125</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04478933033616292</v>
+        <v>0.03885302183162292</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2458362594.12009</v>
+        <v>2864277984.816875</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1536326344505361</v>
+        <v>0.1767892516263108</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04780949564931043</v>
+        <v>0.03803050331351417</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,13 +2838,13 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2474158369.008196</v>
+        <v>2161286268.683977</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1071194794029294</v>
+        <v>0.1411309511469012</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02204563306148479</v>
+        <v>0.02735097745071154</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1465593057.060739</v>
+        <v>1368319922.600919</v>
       </c>
       <c r="F87" t="n">
-        <v>0.145563397589525</v>
+        <v>0.1392773343302959</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03354046846397229</v>
+        <v>0.03689125254253956</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2728584342.41593</v>
+        <v>3343911424.716736</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1686107311033513</v>
+        <v>0.1437317192576508</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02831447131909543</v>
+        <v>0.03408701118180123</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,16 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3458942287.910544</v>
+        <v>3057754442.457512</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1347266563080506</v>
+        <v>0.1411752018673142</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02917888654416009</v>
+        <v>0.03563821739629757</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1849347504.398098</v>
+        <v>1781095995.512495</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1138724072209463</v>
+        <v>0.1172417212920067</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04821851011344209</v>
+        <v>0.05360407771471778</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1757771599.33305</v>
+        <v>2030621569.802689</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1702799318608005</v>
+        <v>0.1236292726888246</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04197679179966041</v>
+        <v>0.04172204923272311</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2539246595.614306</v>
+        <v>2006071739.648126</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07942976805185138</v>
+        <v>0.1073051535502767</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04771570500425886</v>
+        <v>0.03691479922105532</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3844472617.396876</v>
+        <v>4946741251.574908</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09081662654315055</v>
+        <v>0.08765804762268732</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0483747433946505</v>
+        <v>0.04657183635570607</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2300625021.5169</v>
+        <v>2505437170.541746</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1474280778776448</v>
+        <v>0.1628774630069141</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03564592872404956</v>
+        <v>0.02871087283783372</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2907144934.747296</v>
+        <v>2793672741.046907</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1080831111899602</v>
+        <v>0.1105699597634314</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03437606523312991</v>
+        <v>0.04736093280019472</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1744072890.200047</v>
+        <v>1878283748.190687</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1202671089401164</v>
+        <v>0.1365395833870134</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03303805977239878</v>
+        <v>0.03674529110855714</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3409958775.293102</v>
+        <v>3385536713.473199</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1306195008626061</v>
+        <v>0.1352260388331136</v>
       </c>
       <c r="G97" t="n">
-        <v>0.022479062819424</v>
+        <v>0.02559590206112924</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3650997355.855549</v>
+        <v>3232377104.452746</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1287647701604838</v>
+        <v>0.09516685801403955</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02691988001839272</v>
+        <v>0.0222419875185653</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3005867953.972641</v>
+        <v>3411904033.090158</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1114582380820856</v>
+        <v>0.1116047306220236</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03351905217648641</v>
+        <v>0.02431049865707135</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4381878736.32437</v>
+        <v>4534741488.670105</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1495178103435402</v>
+        <v>0.1436101998155262</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01853116122103601</v>
+        <v>0.02760129956713387</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2945671798.449449</v>
+        <v>3311336885.35111</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1578745120865363</v>
+        <v>0.1452731442449274</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03807456123626973</v>
+        <v>0.04882166840487369</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_387.xlsx
+++ b/output/fit_clients/fit_round_387.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1836500450.085597</v>
+        <v>1665720612.595294</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08510769381417249</v>
+        <v>0.0826293737236815</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04040893478864453</v>
+        <v>0.03732762773714708</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1744746584.540641</v>
+        <v>2163417372.076283</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1799920581207947</v>
+        <v>0.11457613034899</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03581501288544742</v>
+        <v>0.04581032524714474</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3418258183.37079</v>
+        <v>3491375884.731875</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1629797183225957</v>
+        <v>0.1416901467122814</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03360799090188028</v>
+        <v>0.03667596459253623</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
+      <c r="I4" t="n">
+        <v>197</v>
+      </c>
+      <c r="J4" t="n">
+        <v>384</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3065571803.955928</v>
+        <v>3499632302.480628</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08721036420741328</v>
+        <v>0.07914312911705981</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04761846651535472</v>
+        <v>0.04625591448231569</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>157</v>
+      </c>
+      <c r="J5" t="n">
+        <v>386</v>
+      </c>
+      <c r="K5" t="n">
+        <v>51.7781105830564</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2658348603.020476</v>
+        <v>1978756963.485989</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0991989940563614</v>
+        <v>0.1108300005478627</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0481973748953021</v>
+        <v>0.03962424903522431</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2193114861.929186</v>
+        <v>2374516982.608421</v>
       </c>
       <c r="F7" t="n">
-        <v>0.075817442940775</v>
+        <v>0.09744235720580754</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04959250739860724</v>
+        <v>0.03714627585313798</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,16 +713,25 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3468310356.561266</v>
+        <v>2908062267.442134</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2112368231284695</v>
+        <v>0.1841231080131368</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02658733124866331</v>
+        <v>0.02497417284131339</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>105</v>
+      </c>
+      <c r="J8" t="n">
+        <v>386</v>
+      </c>
+      <c r="K8" t="n">
+        <v>35.33320501901866</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1601810603.336113</v>
+        <v>2244410327.818935</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1865306980536361</v>
+        <v>0.1633308093816184</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02440824704914431</v>
+        <v>0.03336667649887898</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4016129702.573128</v>
+        <v>5060934773.271622</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1382006590050127</v>
+        <v>0.1469985135618858</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05063659811138158</v>
+        <v>0.0375516219685943</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>316</v>
+      </c>
+      <c r="J10" t="n">
+        <v>386</v>
+      </c>
+      <c r="K10" t="n">
+        <v>51.1848419116359</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +816,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3178100066.841909</v>
+        <v>3474983566.987958</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1320683247873725</v>
+        <v>0.1609265787407572</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04529636510638637</v>
+        <v>0.04671335005886685</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>162</v>
+      </c>
+      <c r="J11" t="n">
+        <v>384</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -766,17 +857,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3146064842.910076</v>
+        <v>3213056067.372762</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1689357701508864</v>
+        <v>0.1357128072371075</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05165254071859462</v>
+        <v>0.03771205170706581</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,17 +892,24 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5079908434.961739</v>
+        <v>4323174192.710098</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09548834215280992</v>
+        <v>0.0851119627994448</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02645392583125399</v>
+        <v>0.02631189344441082</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>201</v>
+      </c>
+      <c r="J13" t="n">
+        <v>387</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,22 +921,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3793886742.419494</v>
+        <v>3682082826.677806</v>
       </c>
       <c r="F14" t="n">
-        <v>0.116447442044261</v>
+        <v>0.1662638837300077</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03220711905121193</v>
+        <v>0.02855640627829933</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>80</v>
+      </c>
+      <c r="J14" t="n">
+        <v>387</v>
+      </c>
+      <c r="K14" t="n">
+        <v>64.81729076049596</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1767987595.372131</v>
+        <v>1478178512.312876</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06939999878260893</v>
+        <v>0.08877993229447119</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04648910051773514</v>
+        <v>0.0444626096569231</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2882202002.089424</v>
+        <v>2348177495.172468</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08554656899369432</v>
+        <v>0.07138611362992975</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04735681046962849</v>
+        <v>0.03795177552516701</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,16 +1034,25 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4203350423.410684</v>
+        <v>4995055551.76138</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1114267212669778</v>
+        <v>0.108729094207857</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03748292344176961</v>
+        <v>0.03497309070031877</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>185</v>
+      </c>
+      <c r="J17" t="n">
+        <v>387</v>
+      </c>
+      <c r="K17" t="n">
+        <v>53.28140200768589</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1065,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2718124333.269032</v>
+        <v>2560349054.206032</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1298969302578278</v>
+        <v>0.1245805798885216</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02298696101320261</v>
+        <v>0.03456266875765212</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>94</v>
+      </c>
+      <c r="J18" t="n">
+        <v>383</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>831906913.6790663</v>
+        <v>880898512.7234553</v>
       </c>
       <c r="F19" t="n">
-        <v>0.130691241436801</v>
+        <v>0.1325523180192124</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02626422522163466</v>
+        <v>0.02626093889095083</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1135,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2169334312.458545</v>
+        <v>1993182395.782166</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1148176149482491</v>
+        <v>0.1230444070018662</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02702571681317048</v>
+        <v>0.02915990447802766</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1170,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1715952769.7048</v>
+        <v>2382771255.424268</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06399215361102863</v>
+        <v>0.09720743293727455</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03220735169710118</v>
+        <v>0.03167846072180368</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1205,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3085026797.037784</v>
+        <v>2731505111.257055</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09736225913482682</v>
+        <v>0.1357615111056789</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0557775107883336</v>
+        <v>0.04621282400121389</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>107</v>
+      </c>
+      <c r="J22" t="n">
+        <v>379</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1246,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1548698961.518621</v>
+        <v>1515933915.655304</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1471616837486136</v>
+        <v>0.1667971564670124</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05276464823812142</v>
+        <v>0.05099456255390401</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1281,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3388846109.874124</v>
+        <v>2964971527.500873</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1059755630242644</v>
+        <v>0.1344331447088296</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03508487761348927</v>
+        <v>0.03359831757779757</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>119</v>
+      </c>
+      <c r="J24" t="n">
+        <v>381</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>944020979.941725</v>
+        <v>1356126102.791312</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1208956482174508</v>
+        <v>0.1031106783255171</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01887752332206746</v>
+        <v>0.02659869316435024</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>954660130.1209807</v>
+        <v>1448429608.452199</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09558857830252107</v>
+        <v>0.07614177817985138</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03411693514445501</v>
+        <v>0.03634382900547561</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,17 +1386,24 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3935839071.144852</v>
+        <v>3176733651.652493</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1561309505328542</v>
+        <v>0.1337420805589551</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02236602525278741</v>
+        <v>0.01992062876418389</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>161</v>
+      </c>
+      <c r="J27" t="n">
+        <v>385</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,22 +1415,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2440103916.027076</v>
+        <v>3485903409.16899</v>
       </c>
       <c r="F28" t="n">
-        <v>0.103774099554522</v>
+        <v>0.15020650805529</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04978638839794737</v>
+        <v>0.04212348224960945</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>91</v>
+      </c>
+      <c r="J28" t="n">
+        <v>387</v>
+      </c>
+      <c r="K28" t="n">
+        <v>55.0532142266528</v>
       </c>
     </row>
     <row r="29">
@@ -1236,23 +1452,30 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5752494859.530819</v>
+        <v>3707972711.556168</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1237904105946977</v>
+        <v>0.1056761086212875</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02949663643347951</v>
+        <v>0.0361977676677598</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>332</v>
+      </c>
+      <c r="J29" t="n">
+        <v>387</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1778539143.664692</v>
+        <v>2072761546.464246</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1229914653158057</v>
+        <v>0.1243508116006185</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02630237201582181</v>
+        <v>0.04026114196359786</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1108891390.800467</v>
+        <v>1278436540.708683</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1118267460605384</v>
+        <v>0.07024224657904404</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04723210299959126</v>
+        <v>0.04831682499785117</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1354070602.231719</v>
+        <v>1700093993.003897</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09130047828990789</v>
+        <v>0.07508051934203598</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02916541771522222</v>
+        <v>0.029128877087659</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2620594584.677405</v>
+        <v>2211631846.605451</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1434029818327063</v>
+        <v>0.196822143473086</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04720999967581317</v>
+        <v>0.05148943347997523</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1499382053.384162</v>
+        <v>1335312089.883289</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1109683235005187</v>
+        <v>0.07989363569112681</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02413749492853673</v>
+        <v>0.02498103606353159</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1668,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1221456527.37224</v>
+        <v>1019057461.091556</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07425333089967136</v>
+        <v>0.1066882161281411</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03963058343111379</v>
+        <v>0.02918335920794918</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2021056187.930838</v>
+        <v>2728597067.732717</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1450612512920265</v>
+        <v>0.1383674792152061</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02847609165739314</v>
+        <v>0.02794557922477635</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2344956272.901504</v>
+        <v>2068354231.309581</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1089868379605119</v>
+        <v>0.07731473611816238</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03142011832712389</v>
+        <v>0.03730973677163014</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1520215359.79579</v>
+        <v>1561113965.147223</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1095193693141119</v>
+        <v>0.1175390189180062</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02912800313056897</v>
+        <v>0.0325096499776012</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1792456989.894891</v>
+        <v>1457273876.636019</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1534155732809935</v>
+        <v>0.1521192512240297</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02438225479000966</v>
+        <v>0.03259544927199474</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1582898025.63837</v>
+        <v>1273053546.812461</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1527188490368086</v>
+        <v>0.1555957995489603</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03890610851584035</v>
+        <v>0.05279084982710762</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2543416553.289017</v>
+        <v>2801527031.311944</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1137788537728942</v>
+        <v>0.1578985205200606</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03683181991647248</v>
+        <v>0.02938592061205153</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,16 +1913,25 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2697885420.693416</v>
+        <v>3964901490.331306</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08523087591550446</v>
+        <v>0.09359645758969415</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03104753833787084</v>
+        <v>0.03555819314878757</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>169</v>
+      </c>
+      <c r="J42" t="n">
+        <v>387</v>
+      </c>
+      <c r="K42" t="n">
+        <v>60.39657222350891</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2002013676.875773</v>
+        <v>2748292168.108031</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1614447721842473</v>
+        <v>0.1948064887391495</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01867143123068691</v>
+        <v>0.02397660172143333</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1988590058.88324</v>
+        <v>2347524577.611406</v>
       </c>
       <c r="F44" t="n">
-        <v>0.096191399798514</v>
+        <v>0.06371689124984088</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02312564129620949</v>
+        <v>0.03000718132715823</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1606770326.753251</v>
+        <v>2346077672.793938</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1513578999739053</v>
+        <v>0.1245043268128612</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05604040339978141</v>
+        <v>0.043050583152985</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,16 +2055,25 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5252962458.732241</v>
+        <v>4136220274.440883</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1669402174893752</v>
+        <v>0.127329174547904</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04222221391291706</v>
+        <v>0.03698533542954761</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>232</v>
+      </c>
+      <c r="J46" t="n">
+        <v>387</v>
+      </c>
+      <c r="K46" t="n">
+        <v>53.76347330935577</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2086,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3821225653.273317</v>
+        <v>4785167609.956737</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1323326989017623</v>
+        <v>0.1993596739915593</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04078851897701385</v>
+        <v>0.05081960694663462</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>173</v>
+      </c>
+      <c r="J47" t="n">
+        <v>387</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2121,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3310003809.595321</v>
+        <v>4530250315.978117</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06686451994042271</v>
+        <v>0.07072875313434929</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02457736428763812</v>
+        <v>0.03570489271700779</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>200</v>
+      </c>
+      <c r="J48" t="n">
+        <v>387</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2156,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1643530728.073322</v>
+        <v>1441717152.611157</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1301162956185297</v>
+        <v>0.1737107676718819</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02965025861066442</v>
+        <v>0.03033290211268602</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2191,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3783671790.833106</v>
+        <v>4012058136.296476</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1108930047000169</v>
+        <v>0.1642399814683565</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0529496630581482</v>
+        <v>0.03525489046550295</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>133</v>
+      </c>
+      <c r="J50" t="n">
+        <v>387</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1028695528.149872</v>
+        <v>1035457135.526942</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1627111035681186</v>
+        <v>0.1753292311243716</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05301603443249839</v>
+        <v>0.05296814595119253</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,17 +2267,24 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3350920360.646789</v>
+        <v>4550443614.137408</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1304526581216985</v>
+        <v>0.1197572641557891</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04461108349654129</v>
+        <v>0.04704502905263899</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>226</v>
+      </c>
+      <c r="J52" t="n">
+        <v>387</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2296,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3335351987.91557</v>
+        <v>3711479977.981143</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1272359258901074</v>
+        <v>0.1604218144542506</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03498627255035568</v>
+        <v>0.02243789827590063</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>53</v>
+      </c>
+      <c r="J53" t="n">
+        <v>387</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2331,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4067291801.967205</v>
+        <v>4332618352.091406</v>
       </c>
       <c r="F54" t="n">
-        <v>0.107630468547184</v>
+        <v>0.1062744784334521</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03198757419284143</v>
+        <v>0.05092026610107465</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>206</v>
+      </c>
+      <c r="J54" t="n">
+        <v>386</v>
+      </c>
+      <c r="K54" t="n">
+        <v>52.03413640263725</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2368,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3839568956.237052</v>
+        <v>3752127920.890407</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1802434548405273</v>
+        <v>0.2087769299264041</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0256419900178791</v>
+        <v>0.02395821907347129</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>188</v>
+      </c>
+      <c r="J55" t="n">
+        <v>386</v>
+      </c>
+      <c r="K55" t="n">
+        <v>49.06194934208901</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1429455234.30179</v>
+        <v>1397239840.690517</v>
       </c>
       <c r="F56" t="n">
-        <v>0.110778845484009</v>
+        <v>0.1603190134342175</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0389767460558072</v>
+        <v>0.03572637353948581</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2440,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3005494761.973083</v>
+        <v>3422107346.854056</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1768224357914044</v>
+        <v>0.1345024015892787</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02433518652857942</v>
+        <v>0.02277331137154267</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>164</v>
+      </c>
+      <c r="J57" t="n">
+        <v>385</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1348812750.641081</v>
+        <v>1904696708.021909</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1520986909396138</v>
+        <v>0.1711148337425592</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03967984302361554</v>
+        <v>0.03315554397125176</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2510,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3273076102.719294</v>
+        <v>4906692833.455979</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0991205721352957</v>
+        <v>0.1185453590115271</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04605287214980175</v>
+        <v>0.03023197043181054</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>188</v>
+      </c>
+      <c r="J59" t="n">
+        <v>386</v>
+      </c>
+      <c r="K59" t="n">
+        <v>50.7410579839228</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3719158982.841346</v>
+        <v>3502178756.767977</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1917236890193702</v>
+        <v>0.172347855976951</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0289311134950948</v>
+        <v>0.02172172763959817</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>71</v>
+      </c>
+      <c r="J60" t="n">
+        <v>379</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2050779407.001993</v>
+        <v>2218271100.590524</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1535256626734037</v>
+        <v>0.131933854801103</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02649914662687781</v>
+        <v>0.03032060237323255</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>13</v>
+      </c>
+      <c r="J61" t="n">
+        <v>384</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1533957567.355085</v>
+        <v>1884248022.964344</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1676714927659774</v>
+        <v>0.1261343809546263</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03959472894560093</v>
+        <v>0.03342091019688682</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2652,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3441044722.760757</v>
+        <v>5335517066.601776</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1023244510110784</v>
+        <v>0.08062170142150764</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02940938721747801</v>
+        <v>0.04575599252320926</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>192</v>
+      </c>
+      <c r="J63" t="n">
+        <v>386</v>
+      </c>
+      <c r="K63" t="n">
+        <v>50.93807690461765</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2695,25 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5053085242.541382</v>
+        <v>4899819731.659985</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1451152868761033</v>
+        <v>0.191799902044702</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03484079409170812</v>
+        <v>0.03151341957965412</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>192</v>
+      </c>
+      <c r="J64" t="n">
+        <v>386</v>
+      </c>
+      <c r="K64" t="n">
+        <v>50.01762063840842</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2726,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4654245785.850939</v>
+        <v>4174483383.603728</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1725206064724565</v>
+        <v>0.1619397273239239</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02408431099580208</v>
+        <v>0.02656082446989817</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>289</v>
+      </c>
+      <c r="J65" t="n">
+        <v>386</v>
+      </c>
+      <c r="K65" t="n">
+        <v>51.81697581232851</v>
       </c>
     </row>
     <row r="66">
@@ -2278,17 +2769,24 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4756857448.158941</v>
+        <v>4646446009.2959</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1602288126491578</v>
+        <v>0.1511182430992858</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04450618609877734</v>
+        <v>0.03202127243878906</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>191</v>
+      </c>
+      <c r="J66" t="n">
+        <v>387</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2215334715.963316</v>
+        <v>3197671116.260709</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1031343920427615</v>
+        <v>0.07021281907574761</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03658017740692502</v>
+        <v>0.04723335109717597</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>312</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,17 +2839,24 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4433876359.653921</v>
+        <v>4574024928.104507</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1094172767857482</v>
+        <v>0.1364017746648823</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05157254343941028</v>
+        <v>0.03625785885485869</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>210</v>
+      </c>
+      <c r="J68" t="n">
+        <v>387</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1731005219.776155</v>
+        <v>1872842151.55025</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1465071645872749</v>
+        <v>0.1667942361851879</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05543088345221802</v>
+        <v>0.05613358041763385</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3499680313.114892</v>
+        <v>3712277578.564375</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06212047993102548</v>
+        <v>0.09454904365764961</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03372079594401021</v>
+        <v>0.031685176344898</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>52</v>
+      </c>
+      <c r="J70" t="n">
+        <v>387</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,17 +2944,24 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5225233459.09322</v>
+        <v>4422149501.291377</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1687032663134349</v>
+        <v>0.1169997648399511</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02827801786109007</v>
+        <v>0.03375758245364526</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>275</v>
+      </c>
+      <c r="J71" t="n">
+        <v>387</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2446,17 +2979,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2127791301.941137</v>
+        <v>1717920554.829066</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06624823058700663</v>
+        <v>0.1026577035995963</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04078233323869063</v>
+        <v>0.0324638781524923</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3008,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3541680331.306359</v>
+        <v>3143649956.873664</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1098191388836588</v>
+        <v>0.08864516276432406</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04694307498557226</v>
+        <v>0.03573155457603594</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>29</v>
+      </c>
+      <c r="J73" t="n">
+        <v>382</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3043,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3818855055.91616</v>
+        <v>3297607325.371476</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1636082466434255</v>
+        <v>0.1498120156272768</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02203570506796543</v>
+        <v>0.02169269044165709</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>111</v>
+      </c>
+      <c r="J74" t="n">
+        <v>383</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3078,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1517877191.461475</v>
+        <v>2059629751.508406</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1492770106458535</v>
+        <v>0.166528058202239</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03123486060449018</v>
+        <v>0.02436492872672007</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3113,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3974860890.304775</v>
+        <v>3538594875.924108</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1028842419863629</v>
+        <v>0.0803092862260688</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03017712681485817</v>
+        <v>0.02629672431227877</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>182</v>
+      </c>
+      <c r="J76" t="n">
+        <v>387</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3148,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1870609898.253743</v>
+        <v>1947214463.484368</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1640143720688044</v>
+        <v>0.1371021794939557</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02441556745130958</v>
+        <v>0.02501316230111526</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3183,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3402741650.164356</v>
+        <v>3453230319.144061</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09675489960881187</v>
+        <v>0.08293225702097959</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03664774803318949</v>
+        <v>0.04948805480989765</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>193</v>
+      </c>
+      <c r="J78" t="n">
+        <v>386</v>
+      </c>
+      <c r="K78" t="n">
+        <v>39.96753545285427</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3220,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1538115796.190937</v>
+        <v>1610441674.618131</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1666056417209199</v>
+        <v>0.1669325158450648</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0270922730139321</v>
+        <v>0.02758762463448819</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3255,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3752735698.639771</v>
+        <v>5130722964.563188</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09707620247380475</v>
+        <v>0.1009945291795725</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0241460082092287</v>
+        <v>0.03515983636764783</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>189</v>
+      </c>
+      <c r="J80" t="n">
+        <v>386</v>
+      </c>
+      <c r="K80" t="n">
+        <v>42.99750178434987</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3292,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3863331413.191235</v>
+        <v>4421016241.389784</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1166026999193344</v>
+        <v>0.1224943590778874</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02351395460149746</v>
+        <v>0.02205525350514183</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>180</v>
+      </c>
+      <c r="J81" t="n">
+        <v>386</v>
+      </c>
+      <c r="K81" t="n">
+        <v>49.4266281162787</v>
       </c>
     </row>
     <row r="82">
@@ -2720,23 +3329,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4289712171.268085</v>
+        <v>4583573938.285435</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1464447950051583</v>
+        <v>0.1799013660645367</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02929052785149328</v>
+        <v>0.02306775943754395</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>266</v>
+      </c>
+      <c r="J82" t="n">
+        <v>387</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1751845226.299301</v>
+        <v>1750877256.387923</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09884654606755745</v>
+        <v>0.1049353173288995</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03111711347008845</v>
+        <v>0.04199086590832074</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2575256065.279439</v>
+        <v>2025242676.912483</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1016647677374125</v>
+        <v>0.09297021238138449</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03885302183162292</v>
+        <v>0.05225102899003331</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3434,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2864277984.816875</v>
+        <v>2285701231.405789</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1767892516263108</v>
+        <v>0.1569980432369334</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03803050331351417</v>
+        <v>0.0369349168157263</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>50</v>
+      </c>
+      <c r="J85" t="n">
+        <v>373</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2161286268.683977</v>
+        <v>1864503986.33294</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1411309511469012</v>
+        <v>0.106052447585627</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02735097745071154</v>
+        <v>0.02710076538015941</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1368319922.600919</v>
+        <v>970622517.5942264</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1392773343302959</v>
+        <v>0.1404865461259407</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03689125254253956</v>
+        <v>0.03179509637026766</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3539,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3343911424.716736</v>
+        <v>3164888093.195939</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1437317192576508</v>
+        <v>0.1214464428413493</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03408701118180123</v>
+        <v>0.03495723960340404</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>49</v>
+      </c>
+      <c r="J88" t="n">
+        <v>384</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3580,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3057754442.457512</v>
+        <v>2434322697.158375</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1411752018673142</v>
+        <v>0.1506218371153567</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03563821739629757</v>
+        <v>0.0307209671312041</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3609,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1781095995.512495</v>
+        <v>1737869934.019111</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1172417212920067</v>
+        <v>0.09656817035070091</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05360407771471778</v>
+        <v>0.04974301700797958</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2030621569.802689</v>
+        <v>1819318235.884537</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1236292726888246</v>
+        <v>0.1296532117081496</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04172204923272311</v>
+        <v>0.04253952945878479</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3679,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2006071739.648126</v>
+        <v>1888971729.894334</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1073051535502767</v>
+        <v>0.08990403676014926</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03691479922105532</v>
+        <v>0.04102524938666766</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3714,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4946741251.574908</v>
+        <v>3766607695.730837</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08765804762268732</v>
+        <v>0.1392172931724624</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04657183635570607</v>
+        <v>0.03398799352308654</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>183</v>
+      </c>
+      <c r="J93" t="n">
+        <v>387</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3062,17 +3755,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2505437170.541746</v>
+        <v>1879820832.739566</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1628774630069141</v>
+        <v>0.1293674815739888</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02871087283783372</v>
+        <v>0.0262869485850634</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3784,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2793672741.046907</v>
+        <v>3158910083.444154</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1105699597634314</v>
+        <v>0.1020128025617248</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04736093280019472</v>
+        <v>0.03633149315500522</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3819,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1878283748.190687</v>
+        <v>2149432580.434555</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1365395833870134</v>
+        <v>0.1287555975563759</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03674529110855714</v>
+        <v>0.03782606127353661</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3854,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3385536713.473199</v>
+        <v>3922163780.662144</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1352260388331136</v>
+        <v>0.1548083130039676</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02559590206112924</v>
+        <v>0.02262837071428547</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>201</v>
+      </c>
+      <c r="J97" t="n">
+        <v>386</v>
+      </c>
+      <c r="K97" t="n">
+        <v>49.2040053280772</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3891,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3232377104.452746</v>
+        <v>3543671014.485503</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09516685801403955</v>
+        <v>0.1039347658848521</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0222419875185653</v>
+        <v>0.02902272449877308</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>98</v>
+      </c>
+      <c r="J98" t="n">
+        <v>387</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,22 +3926,31 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3411904033.090158</v>
+        <v>2424382341.304392</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1116047306220236</v>
+        <v>0.1180162489654034</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02431049865707135</v>
+        <v>0.02925291215506807</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="n">
+        <v>34.8968787995592</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4534741488.670105</v>
+        <v>3236811030.532179</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1436101998155262</v>
+        <v>0.1675043509270741</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02760129956713387</v>
+        <v>0.02580312605178156</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>178</v>
+      </c>
+      <c r="J100" t="n">
+        <v>386</v>
+      </c>
+      <c r="K100" t="n">
+        <v>34.07717447952113</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3311336885.35111</v>
+        <v>2600690133.422772</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1452731442449274</v>
+        <v>0.2104756214380214</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04882166840487369</v>
+        <v>0.03660061760833205</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>34</v>
+      </c>
+      <c r="J101" t="n">
+        <v>374</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
